--- a/Stochastics/processed_2345three bunches.xlsx
+++ b/Stochastics/processed_2345three bunches.xlsx
@@ -855,15 +855,27 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[269]</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>['44.080251']</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>269</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -924,7 +936,7 @@
         <v>33.2013201320132</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -934,19 +946,19 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[156]</t>
+          <t>[201, 126]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>['4.080849']</t>
+          <t>['6.364597', '3.711166']</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1008,18 +1020,30 @@
         <v>32.3012301230123</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>[159, 87]</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>['2.954953', '3.088998']</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>159</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1155,27 +1179,15 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>[269]</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>['7.156832']</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>269</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1</v>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1239,15 +1251,27 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>[312]</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>['2.766140']</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>312</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1491,15 +1515,27 @@
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>[312, 51]</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>['5.109327', '3.711166']</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>51</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1599,27 +1635,15 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>[269]</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>['12.049856']</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>269</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1863,27 +1887,15 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>[312, 269, 330, 51]</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>['6.307770', '30.869504', '3.911913', '4.080849']</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>330</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1911,15 +1923,27 @@
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>[312, 60]</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>['0.948778', '2.954953']</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>312</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2127,27 +2151,15 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>[269]</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>['7.590225']</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>269</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2211,27 +2223,15 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>[269]</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>['7.112673']</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>269</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2259,15 +2259,27 @@
         <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
       </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>[269, 51]</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>['38.976880', '6.364597']</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>51</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2688,7 +2700,7 @@
         <v>66.39963996399641</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -2698,19 +2710,19 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>[131, 89, 197, 383, 156, 185]</t>
+          <t>[201, 45]</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>['12.049856', '7.156832', '7.112673', '8.528455', '30.869504', '7.590225']</t>
+          <t>['38.976880', '44.080251']</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3178,16 +3190,16 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>[330]</t>
+          <t>[111]</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>['21.807316']</t>
+          <t>['22.045392']</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>330</v>
+        <v>111</v>
       </c>
       <c r="N73" t="n">
         <v>1</v>
@@ -3216,7 +3228,7 @@
         <v>29.9009900990099</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -3226,19 +3238,19 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>[156]</t>
+          <t>[99, 159, 126]</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>['6.307770']</t>
+          <t>['2.766140', '0.948778', '5.109327']</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -3372,7 +3384,7 @@
         <v>33.5013501350135</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -3382,19 +3394,19 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>[111, 156, 311]</t>
+          <t>[111]</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['5.692669', '3.911913', '21.807316']</t>
+          <t>['5.692669']</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3819,27 +3831,15 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>[269]</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>['8.528455']</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>269</v>
-      </c>
-      <c r="N90" t="n">
-        <v>1</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -4188,7 +4188,7 @@
         <v>62.4992499249925</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -4198,19 +4198,19 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>[116, 176, 359]</t>
+          <t>[265, 331, 31, 55, 244]</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>['9.973459', '7.875430', '9.110247']</t>
+          <t>['20.300664', '20.667106', '21.098364', '25.988888', '22.484724']</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>176</v>
+        <v>265</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -4246,16 +4246,16 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>[74, 176]</t>
+          <t>[74, 53, 176]</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>['51.791854', '32.900409']</t>
+          <t>['51.791854', '25.988888', '32.900409']</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
@@ -4392,7 +4392,7 @@
         <v>85.9015901590159</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -4402,19 +4402,19 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>[344, 221, 55, 176, 146, 230]</t>
+          <t>[55]</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>['4.080849', '8.005799', '51.791854', '19.056039', '5.161911', '7.156832']</t>
+          <t>['51.791854']</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>344</v>
+        <v>55</v>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -4803,27 +4803,15 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
       </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>[74]</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>['5.161911']</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>74</v>
-      </c>
-      <c r="N116" t="n">
-        <v>3</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4894,16 +4882,16 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>[55, 74, 53]</t>
+          <t>[55]</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>['32.900409', '19.056039', '7.875430']</t>
+          <t>['32.900409']</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N118" t="n">
         <v>2</v>
@@ -5331,27 +5319,15 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
         <v>1</v>
       </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>[74]</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>['8.005799']</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>74</v>
-      </c>
-      <c r="N130" t="n">
-        <v>3</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -5379,27 +5355,15 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
       </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>[74]</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>['7.156832']</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>74</v>
-      </c>
-      <c r="N131" t="n">
-        <v>3</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -5607,15 +5571,27 @@
         <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
       </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>[53]</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>['22.484724']</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>53</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -5751,15 +5727,27 @@
         <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
       </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>[53]</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>['20.300664']</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>53</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -6147,15 +6135,27 @@
         <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
       </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>[53]</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>['20.667106']</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>53</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -6219,27 +6219,15 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
       </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>[74]</t>
-        </is>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>['4.080849']</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>74</v>
-      </c>
-      <c r="N154" t="n">
-        <v>3</v>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -6339,27 +6327,15 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="n">
         <v>0</v>
       </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>[53]</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>['9.110247']</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>53</v>
-      </c>
-      <c r="N157" t="n">
-        <v>2</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -7474,16 +7450,16 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>[116, 140, 107]</t>
+          <t>[107, 53, 116, 140]</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>['22.179283', '23.574363', '23.981711']</t>
+          <t>['23.981711', '21.098364', '22.179283', '23.574363']</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="N188" t="n">
         <v>0</v>
@@ -7980,7 +7956,7 @@
         <v>12.4992499249925</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -7990,19 +7966,19 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>[223, 130, 226]</t>
+          <t>[132, 228]</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>['16.338972', '20.164542', '24.237952']</t>
+          <t>['10.709012', '12.094596']</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c r="N202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -8391,15 +8367,27 @@
         <v>1</v>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="n">
         <v>0</v>
       </c>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="inlineStr"/>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>[213]</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>['3.015264']</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>213</v>
+      </c>
+      <c r="N213" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -8751,15 +8739,27 @@
         <v>1</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="n">
         <v>0</v>
       </c>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="inlineStr"/>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>[150, 60]</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>['2.184251', '3.088998']</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>150</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -9046,16 +9046,16 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>[111]</t>
+          <t>[150]</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>['2.830477']</t>
+          <t>['2.418919']</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="N231" t="n">
         <v>0</v>
@@ -9094,19 +9094,19 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>[31, 328]</t>
+          <t>[328, 31, 219]</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>['23.981711', '26.629098']</t>
+          <t>['26.629098', '23.981711', '17.903302']</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>31</v>
+        <v>219</v>
       </c>
       <c r="N232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -9204,7 +9204,7 @@
         <v>31.7011701170117</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -9214,19 +9214,19 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>[330, 105, 180, 288, 150]</t>
+          <t>[143, 150, 330, 311]</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>['5.692669', '2.830477', '4.025325', '4.025325', '1.800180']</t>
+          <t>['21.538754', '1.800180', '5.692669', '22.045392']</t>
         </is>
       </c>
       <c r="M235" t="n">
         <v>150</v>
       </c>
       <c r="N235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -9334,16 +9334,16 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>[31, 53]</t>
+          <t>[31]</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>['22.179283', '9.973459']</t>
+          <t>['22.179283']</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="N238" t="n">
         <v>2</v>
@@ -9627,27 +9627,15 @@
         <v>2</v>
       </c>
       <c r="I246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J246" t="n">
         <v>0</v>
       </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>[57]</t>
-        </is>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>['20.164542']</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>57</v>
-      </c>
-      <c r="N246" t="n">
-        <v>1</v>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -9675,15 +9663,27 @@
         <v>1</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" t="n">
         <v>0</v>
       </c>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="inlineStr"/>
-      <c r="N247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>[213, 57]</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>['4.884135', '10.709012']</t>
+        </is>
+      </c>
+      <c r="M247" t="n">
+        <v>213</v>
+      </c>
+      <c r="N247" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -10011,15 +10011,27 @@
         <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" t="n">
         <v>0</v>
       </c>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="inlineStr"/>
-      <c r="N256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>[219, 111]</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>['18.652126', '21.538754']</t>
+        </is>
+      </c>
+      <c r="M256" t="n">
+        <v>219</v>
+      </c>
+      <c r="N256" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -10152,7 +10164,7 @@
         <v>31.7011701170117</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -10162,19 +10174,19 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>[111]</t>
+          <t>[105, 87, 111]</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>['1.800180']</t>
+          <t>['2.418919', '2.184251', '1.800180']</t>
         </is>
       </c>
       <c r="M260" t="n">
         <v>111</v>
       </c>
       <c r="N260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -10851,27 +10863,15 @@
         <v>1</v>
       </c>
       <c r="I279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J279" t="n">
         <v>0</v>
       </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>[111]</t>
-        </is>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>['4.025325']</t>
-        </is>
-      </c>
-      <c r="M279" t="n">
-        <v>111</v>
-      </c>
-      <c r="N279" t="n">
-        <v>0</v>
-      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -11007,15 +11007,27 @@
         <v>1</v>
       </c>
       <c r="I283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J283" t="n">
         <v>0</v>
       </c>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="inlineStr"/>
-      <c r="N283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>[213]</t>
+        </is>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>['4.993494']</t>
+        </is>
+      </c>
+      <c r="M283" t="n">
+        <v>213</v>
+      </c>
+      <c r="N283" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -11266,19 +11278,19 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>[328, 219]</t>
+          <t>[328]</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>['20.191978', '5.708460']</t>
+          <t>['20.191978']</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>219</v>
+        <v>328</v>
       </c>
       <c r="N290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291">
@@ -11592,7 +11604,7 @@
         <v>5.598559855985599</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299" t="n">
         <v>1</v>
@@ -11602,19 +11614,19 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>[226]</t>
+          <t>[132, 186, 72, 264, 375]</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>['36.020862']</t>
+          <t>['4.884135', '4.993494', '3.015264', '8.078555', '5.637052']</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>226</v>
+        <v>72</v>
       </c>
       <c r="N299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -11676,7 +11688,7 @@
         <v>33.8013801380138</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -11686,19 +11698,19 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>[198, 328, 288]</t>
+          <t>[143, 107, 328]</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>['5.708460', '20.503339', '6.420922']</t>
+          <t>['18.652126', '17.903302', '20.503339']</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="N301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -11734,16 +11746,16 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>[57, 228]</t>
+          <t>[228]</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>['16.338972', '20.786410']</t>
+          <t>['20.786410']</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>57</v>
+        <v>228</v>
       </c>
       <c r="N302" t="n">
         <v>1</v>
@@ -11818,16 +11830,16 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>[213, 264, 57]</t>
+          <t>[264]</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>['36.020862', '44.059721', '24.237952']</t>
+          <t>['44.059721']</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="N304" t="n">
         <v>1</v>
@@ -11866,16 +11878,16 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>[328, 223]</t>
+          <t>[328, 223, 57]</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>['20.763532', '20.786410']</t>
+          <t>['20.763532', '20.786410', '12.094596']</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>328</v>
+        <v>57</v>
       </c>
       <c r="N305" t="n">
         <v>2</v>
@@ -12634,16 +12646,16 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>[226]</t>
+          <t>[213, 226]</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>['44.059721']</t>
+          <t>['8.078555', '44.059721']</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="N326" t="n">
         <v>2</v>
@@ -13107,27 +13119,15 @@
         <v>1</v>
       </c>
       <c r="I339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J339" t="n">
         <v>0</v>
       </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>[219, 111]</t>
-        </is>
-      </c>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>['6.420922', '4.025325']</t>
-        </is>
-      </c>
-      <c r="M339" t="n">
-        <v>111</v>
-      </c>
-      <c r="N339" t="n">
-        <v>0</v>
-      </c>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="inlineStr"/>
+      <c r="M339" t="inlineStr"/>
+      <c r="N339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -13918,12 +13918,12 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>[198, 219, 228, 107]</t>
+          <t>[198, 107, 219, 228]</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>['20.191978', '20.503339', '20.763532', '26.629098']</t>
+          <t>['20.191978', '26.629098', '20.503339', '20.763532']</t>
         </is>
       </c>
       <c r="M361" t="n">
@@ -14859,15 +14859,27 @@
         <v>1</v>
       </c>
       <c r="I387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J387" t="n">
         <v>0</v>
       </c>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
-      <c r="M387" t="inlineStr"/>
-      <c r="N387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>[213]</t>
+        </is>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>['5.637052']</t>
+        </is>
+      </c>
+      <c r="M387" t="n">
+        <v>213</v>
+      </c>
+      <c r="N387" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
